--- a/AAII_Financials/Quarterly/DOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOO_QTR_FIN.xlsx
@@ -302,7 +302,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -344,7 +344,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,142 +662,155 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1903800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1808600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1815100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1674700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1233300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1229800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1615900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1643600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1459500</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1333700</v>
+      </c>
+      <c r="E9" s="3">
         <v>1266600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1313200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1187800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>984900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>994700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1232200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1201700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1131700</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>570100</v>
+      </c>
+      <c r="E10" s="3">
         <v>542000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>501900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>486900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>248400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>235100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>383700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>441900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>327800</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,37 +822,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>68300</v>
+      </c>
+      <c r="E12" s="3">
         <v>65800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>78900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>66000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>46900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>50500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>64700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>60300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>55900</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -867,37 +884,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>-100</v>
       </c>
       <c r="F14" s="3">
+        <v>800</v>
+      </c>
+      <c r="G14" s="3">
         <v>4100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>29300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>177100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-40400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -925,8 +948,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -935,66 +961,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1565400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1492100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1566000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1390400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1173800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1357100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1418500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1435600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1349600</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>338400</v>
+      </c>
+      <c r="E18" s="3">
         <v>316500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>249100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>284300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>59500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-127300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>197400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>208000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1006,153 +1039,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E20" s="3">
         <v>8900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>101000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>9200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>93200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-86800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-13900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>378000</v>
+      </c>
+      <c r="E21" s="3">
         <v>391200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>418100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>358100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>217000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-150200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>246700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>265200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>190100</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E22" s="3">
         <v>15300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>25200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>25800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>26500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>20400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>20200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>21600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>298200</v>
+      </c>
+      <c r="E23" s="3">
         <v>310100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>324900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>267700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>126200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-234500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>163300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>184200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>114800</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>85300</v>
+      </c>
+      <c r="E24" s="3">
         <v>65700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>60700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>69000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-8400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>45100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>48900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1180,66 +1229,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>212900</v>
+      </c>
+      <c r="E26" s="3">
         <v>244400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>264200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>198700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>126100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-226100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>118200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>135300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>93300</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>212600</v>
+      </c>
+      <c r="E27" s="3">
         <v>244200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>264300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>198800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>126300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-226000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>118400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>135600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1267,8 +1325,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1296,8 +1357,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1325,8 +1389,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1354,66 +1421,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-101000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-9200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-93200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>86800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>13900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>212600</v>
+      </c>
+      <c r="E33" s="3">
         <v>244200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>264300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>198800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>126300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-226000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>118400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>135600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1441,71 +1517,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>212600</v>
+      </c>
+      <c r="E35" s="3">
         <v>244200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>264300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>198800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>126300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-226000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>118400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>135600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1517,8 +1602,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1530,269 +1616,297 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>355400</v>
+      </c>
+      <c r="E41" s="3">
         <v>690900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1325700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1309300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1086100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>800700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>42500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>123900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>270400</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>72500</v>
+      </c>
+      <c r="E42" s="3">
         <v>93300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>76500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>39900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>14800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>13400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>19100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>8500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>323400</v>
+      </c>
+      <c r="E43" s="3">
         <v>295700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>339900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>226900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>310400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>417500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>387100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1340600</v>
+      </c>
+      <c r="E44" s="3">
         <v>1276900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1087300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1066500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>916200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1116500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1166300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1252300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1075600</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E45" s="3">
         <v>38400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>32900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>31000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>26500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>28800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>26800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>26600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2135900</v>
+      </c>
+      <c r="E46" s="3">
         <v>2395200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2862300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2747300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2270500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2269800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1672200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1798400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1687100</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>59100</v>
+      </c>
+      <c r="E47" s="3">
         <v>61400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>50400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>43700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>42400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>34000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>32300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>32100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>1366500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1296200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1278500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1226500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1212300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1229800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1242100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1149000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1088600</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>466100</v>
+      </c>
+      <c r="E49" s="3">
         <v>464200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>465100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>460800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>466600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>472600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>610100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>607000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>490400</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1820,8 +1934,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1849,37 +1966,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>225600</v>
+      </c>
+      <c r="E52" s="3">
         <v>212600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>229600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>245500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>248200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>230600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>210400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>218200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>205200</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1907,37 +2030,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>4253200</v>
+      </c>
+      <c r="E54" s="3">
         <v>4429600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4885900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4723800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4240000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4236800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3767100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3804700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3505300</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1949,8 +2078,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -1962,182 +2092,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1224000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1273200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1296500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1183600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>747800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>957000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1085800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1178200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1028400</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>60400</v>
+      </c>
+      <c r="E58" s="3">
         <v>54600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>58800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>90800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>59200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>52000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>49500</v>
-      </c>
-      <c r="J58" s="3">
-        <v>48500</v>
       </c>
       <c r="K58" s="3">
         <v>48500</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>48500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>683100</v>
+      </c>
+      <c r="E59" s="3">
         <v>687900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>837200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>591600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>703700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1455700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>748800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>712100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>656200</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>1967500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2015700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2192500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1866000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1510700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2464700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1884100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1938800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1733100</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>2203100</v>
+      </c>
+      <c r="E61" s="3">
         <v>2162900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2590700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2695500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2744300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1942400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1836800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1807900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1809000</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>500600</v>
+      </c>
+      <c r="E62" s="3">
         <v>501500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>577600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>609000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>651000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>623300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>635900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>616400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2165,8 +2314,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2194,8 +2346,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2223,37 +2378,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>4673900</v>
+      </c>
+      <c r="E66" s="3">
         <v>4683900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5364600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5174400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4910100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5034500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4360900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4367500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4124600</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2265,8 +2426,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2294,8 +2456,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2323,8 +2488,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2352,8 +2520,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2381,37 +2552,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-692000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-551900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-575900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-724400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-932300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1033900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-757000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-798800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-851900</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2439,8 +2616,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2468,8 +2648,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2497,37 +2680,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>-420700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-254300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-478700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-450600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-670100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-797700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-593800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-562800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-619300</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2555,71 +2744,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>212600</v>
+      </c>
+      <c r="E81" s="3">
         <v>244200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>264300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>198800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>126300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-226000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>118400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>135600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2631,37 +2829,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>65900</v>
+      </c>
+      <c r="E83" s="3">
         <v>65800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>68000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>64600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>64300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>63900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>63200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>59400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>56700</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2689,8 +2891,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2718,8 +2923,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2747,8 +2955,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2776,8 +2987,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2805,37 +3019,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>162000</v>
+      </c>
+      <c r="E89" s="3">
         <v>164900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>318600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>309000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>113900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>212700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>138800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>170500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>141700</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2847,37 +3067,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-122900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-85500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-107000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-78100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-33300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-34900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-116200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-69300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-56200</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2905,8 +3129,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -2934,37 +3161,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-131000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-97000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-119800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-61700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-35200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-43600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-126200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-197400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-67500</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -2976,20 +3209,21 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-11000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-9600</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -2997,16 +3231,19 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-8900</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
         <v>-8900</v>
       </c>
       <c r="K96" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="L96" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3034,8 +3271,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3063,8 +3303,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3092,91 +3335,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-369800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-707900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-187700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-23200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>197800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>596900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-97300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-121300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>95800</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E101" s="3">
         <v>5200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>5300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>8900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-7800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-335500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-634800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>16400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>223200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>285400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>758200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-81400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-146500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>174800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOO_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,155 +662,168 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1588000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1903800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1808600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1815100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1674700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1233300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1229800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1615900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1643600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1459500</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1177400</v>
+      </c>
+      <c r="E9" s="3">
         <v>1333700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1266600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1313200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1187800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>984900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>994700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1232200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1201700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1131700</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>410600</v>
+      </c>
+      <c r="E10" s="3">
         <v>570100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>542000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>501900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>486900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>248400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>235100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>383700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>441900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>327800</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -823,40 +836,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>70600</v>
+      </c>
+      <c r="E12" s="3">
         <v>68300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>65800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>78900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>66000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>46900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>50500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>64700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>60300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>55900</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -887,8 +904,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -896,31 +916,34 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>29300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>177100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-40400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -951,8 +974,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -962,72 +988,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1402500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1565400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1492100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1566000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1390400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1173800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1357100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1418500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1435600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1349600</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>185500</v>
+      </c>
+      <c r="E18" s="3">
         <v>338400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>316500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>249100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>284300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>59500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-127300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>197400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>208000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1040,168 +1073,184 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-26300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>8900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>101000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>9200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>93200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-86800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-13900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>261200</v>
+      </c>
+      <c r="E21" s="3">
         <v>378000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>391200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>418100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>358100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>217000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-150200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>246700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>265200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>190100</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E22" s="3">
         <v>13900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>15300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>25200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>25800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>26500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>20400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>20200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>21600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>179600</v>
+      </c>
+      <c r="E23" s="3">
         <v>298200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>310100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>324900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>267700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>126200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-234500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>163300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>184200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>114800</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E24" s="3">
         <v>85300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>65700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>60700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>69000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-8400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>45100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>48900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1232,72 +1281,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>127700</v>
+      </c>
+      <c r="E26" s="3">
         <v>212900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>244400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>264200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>198700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>126100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-226100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>118200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>135300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>93300</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>127600</v>
+      </c>
+      <c r="E27" s="3">
         <v>212600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>244200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>264300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>198800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>126300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-226000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>118400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>135600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1328,8 +1386,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1360,8 +1421,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1392,8 +1456,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1424,72 +1491,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E32" s="3">
         <v>26300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-8900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-101000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-9200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-93200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>86800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>13900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>127600</v>
+      </c>
+      <c r="E33" s="3">
         <v>212600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>244200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>264300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>198800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>126300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-226000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>118400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>135600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1520,77 +1596,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>127600</v>
+      </c>
+      <c r="E35" s="3">
         <v>212600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>244200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>264300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>198800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>126300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-226000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>118400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>135600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1603,8 +1688,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1617,296 +1703,324 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E41" s="3">
         <v>355400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>690900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1325700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1309300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1086100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>800700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>42500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>123900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>270400</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>74400</v>
+      </c>
+      <c r="E42" s="3">
         <v>72500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>93300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>76500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>39900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>14800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>13400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>19100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>8500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>496400</v>
+      </c>
+      <c r="E43" s="3">
         <v>323400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>295700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>339900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>300600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>226900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>310400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>417500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>387100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1745300</v>
+      </c>
+      <c r="E44" s="3">
         <v>1340600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1276900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1087300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1066500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>916200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1116500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1166300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1252300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1075600</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>58500</v>
+      </c>
+      <c r="E45" s="3">
         <v>44000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>38400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>32900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>31000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>26500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>28800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>26800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>26600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2408900</v>
+      </c>
+      <c r="E46" s="3">
         <v>2135900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2395200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2862300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2747300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2270500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2269800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1672200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1798400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1687100</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>69400</v>
+      </c>
+      <c r="E47" s="3">
         <v>59100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>61400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>50400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>43700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>42400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>34000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>32300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>32100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>1407200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1366500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1296200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1278500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1226500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1212300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1229800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1242100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1149000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1088600</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>480300</v>
+      </c>
+      <c r="E49" s="3">
         <v>466100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>464200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>465100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>460800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>466600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>472600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>610100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>607000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>490400</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1937,8 +2051,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1969,40 +2086,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>206800</v>
+      </c>
+      <c r="E52" s="3">
         <v>225600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>212600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>229600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>245500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>248200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>230600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>210400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>218200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>205200</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2033,40 +2156,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>4572600</v>
+      </c>
+      <c r="E54" s="3">
         <v>4253200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4429600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4885900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4723800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4240000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4236800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3767100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3804700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3505300</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2079,8 +2208,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2093,200 +2223,219 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1419900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1224000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1273200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1296500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1183600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>747800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>957000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1085800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1178200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1028400</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>119000</v>
+      </c>
+      <c r="E58" s="3">
         <v>60400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>54600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>58800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>90800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>59200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>52000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>49500</v>
-      </c>
-      <c r="K58" s="3">
-        <v>48500</v>
       </c>
       <c r="L58" s="3">
         <v>48500</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>48500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>617500</v>
+      </c>
+      <c r="E59" s="3">
         <v>683100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>687900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>837200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>591600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>703700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1455700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>748800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>712100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>656200</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>2156400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1967500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2015700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2192500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1866000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1510700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2464700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1884100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1938800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1733100</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>2176600</v>
+      </c>
+      <c r="E61" s="3">
         <v>2203100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2162900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2590700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2695500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2744300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1942400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1836800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1807900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1809000</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>466400</v>
+      </c>
+      <c r="E62" s="3">
         <v>500600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>501500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>577600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>609000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>651000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>623300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>635900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>616400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2317,8 +2466,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2349,8 +2501,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2381,40 +2536,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>4802200</v>
+      </c>
+      <c r="E66" s="3">
         <v>4673900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4683900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5364600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5174400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4910100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5034500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4360900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4367500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4124600</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2427,8 +2588,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2459,8 +2621,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2491,8 +2656,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2523,8 +2691,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2555,40 +2726,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-555700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-692000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-551900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-575900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-724400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-932300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1033900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-757000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-798800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-851900</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2619,8 +2796,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2651,8 +2831,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2683,40 +2866,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>-229600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-420700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-254300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-478700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-450600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-670100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-797700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-593800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-562800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-619300</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2747,77 +2936,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>127600</v>
+      </c>
+      <c r="E81" s="3">
         <v>212600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>244200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>264300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>198800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>126300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-226000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>118400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>135600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2830,40 +3028,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>67400</v>
+      </c>
+      <c r="E83" s="3">
         <v>65900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>65800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>68000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>64600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>64300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>63900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>63200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>59400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>56700</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2894,8 +3096,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2926,8 +3131,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2958,8 +3166,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2990,8 +3201,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3022,40 +3236,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-265700</v>
+      </c>
+      <c r="E89" s="3">
         <v>162000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>164900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>318600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>309000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>113900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>212700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>138800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>170500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>141700</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3068,40 +3288,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-111500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-122900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-85500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-107000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-78100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-33300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-34900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-116200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-69300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-56200</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3132,8 +3356,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3164,40 +3391,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-130800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-131000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-97000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-119800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-61700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-35200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-43600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-126200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-197400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-67500</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3210,23 +3443,24 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-10900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-11000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-9600</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -3234,16 +3468,19 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-8900</v>
+        <v>0</v>
       </c>
       <c r="K96" s="3">
         <v>-8900</v>
       </c>
       <c r="L96" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="M96" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3274,8 +3511,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3306,8 +3546,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3338,100 +3581,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>73500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-369800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-707900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-187700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-23200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>197800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>596900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-97300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-121300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>95800</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E101" s="3">
         <v>3300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>5200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>5300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>8900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-7800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-321100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-335500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-634800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>16400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>223200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>285400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>758200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-81400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-146500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>174800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOO_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,168 +662,181 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2347500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1588000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1903800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1808600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1815100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1674700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1233300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1229800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1615900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1643600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1459500</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1738000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1177400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1333700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1266600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1313200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1187800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>984900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>994700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1232200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1201700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1131700</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>609500</v>
+      </c>
+      <c r="E10" s="3">
         <v>410600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>570100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>542000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>501900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>486900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>248400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>235100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>383700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>441900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>327800</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,43 +850,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>85100</v>
+      </c>
+      <c r="E12" s="3">
         <v>70600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>68300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>65800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>78900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>66000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>46900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>50500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>64700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>60300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>55900</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -907,43 +924,49 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-8600</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>29300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>177100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-40400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -977,8 +1000,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -989,78 +1015,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2000900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1402500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1565400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1492100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1566000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1390400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1173800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1357100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1418500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1435600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1349600</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>346600</v>
+      </c>
+      <c r="E18" s="3">
         <v>185500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>338400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>316500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>249100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>284300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>59500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-127300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>197400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>208000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1074,183 +1107,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="E20" s="3">
         <v>8300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-26300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>8900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>101000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>9200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>93200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-86800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-13900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>375800</v>
+      </c>
+      <c r="E21" s="3">
         <v>261200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>378000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>391200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>418100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>358100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>217000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-150200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>246700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>265200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>190100</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E22" s="3">
         <v>14200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>13900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>15300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>25200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>25800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>26500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>20400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>20200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>21600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>288800</v>
+      </c>
+      <c r="E23" s="3">
         <v>179600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>298200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>310100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>324900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>267700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>126200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-234500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>163300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>184200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>114800</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>79200</v>
+      </c>
+      <c r="E24" s="3">
         <v>51900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>85300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>65700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>60700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>69000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-8400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>45100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>48900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1284,78 +1333,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>209600</v>
+      </c>
+      <c r="E26" s="3">
         <v>127700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>212900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>244400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>264200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>198700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>126100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-226100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>118200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>135300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>93300</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>209400</v>
+      </c>
+      <c r="E27" s="3">
         <v>127600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>212600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>244200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>264300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>198800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>126300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-226000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>118400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>135600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1389,8 +1447,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1424,8 +1485,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1459,8 +1523,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1494,78 +1561,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>26300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-8900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-101000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-9200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-93200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>86800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>13900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>209400</v>
+      </c>
+      <c r="E33" s="3">
         <v>127600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>212600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>244200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>264300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>198800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>126300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-226000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>118400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>135600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1599,83 +1675,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>209400</v>
+      </c>
+      <c r="E35" s="3">
         <v>127600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>212600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>244200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>264300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>198800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>126300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-226000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>118400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>135600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1689,8 +1774,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1704,323 +1790,351 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>265800</v>
+      </c>
+      <c r="E41" s="3">
         <v>34300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>355400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>690900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1325700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1309300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1086100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>800700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>42500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>123900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>270400</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>73600</v>
+      </c>
+      <c r="E42" s="3">
         <v>74400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>72500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>93300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>76500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>39900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>14800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>13400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>19100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>8500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>497300</v>
+      </c>
+      <c r="E43" s="3">
         <v>496400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>323400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>295700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>339900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>300600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>226900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>310400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>417500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>387100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1691300</v>
+      </c>
+      <c r="E44" s="3">
         <v>1745300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1340600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1276900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1087300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1066500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>916200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1116500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1166300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1252300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1075600</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>140100</v>
+      </c>
+      <c r="E45" s="3">
         <v>58500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>44000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>38400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>32900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>31000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>26500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>28800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>26800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>26600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2668100</v>
+      </c>
+      <c r="E46" s="3">
         <v>2408900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2135900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2395200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2862300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2747300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2270500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2269800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1672200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1798400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1687100</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>77600</v>
+      </c>
+      <c r="E47" s="3">
         <v>69400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>59100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>61400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>50400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>43700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>42400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>34000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>32300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>32100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>1574600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1407200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1366500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1296200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1278500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1226500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1212300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1229800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1242100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1149000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1088600</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>494900</v>
+      </c>
+      <c r="E49" s="3">
         <v>480300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>466100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>464200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>465100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>460800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>466600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>472600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>610100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>607000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>490400</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2054,8 +2168,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2089,43 +2206,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>215700</v>
+      </c>
+      <c r="E52" s="3">
         <v>206800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>225600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>212600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>229600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>245500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>248200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>230600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>210400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>218200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>205200</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2159,43 +2282,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>5030900</v>
+      </c>
+      <c r="E54" s="3">
         <v>4572600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4253200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4429600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4885900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4723800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4240000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4236800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3767100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3804700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3505300</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2209,8 +2338,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2224,218 +2354,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1622900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1419900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1224000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1273200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1296500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1183600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>747800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>957000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1085800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1178200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1028400</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>132500</v>
+      </c>
+      <c r="E58" s="3">
         <v>119000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>60400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>54600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>58800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>90800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>59200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>52000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>49500</v>
-      </c>
-      <c r="L58" s="3">
-        <v>48500</v>
       </c>
       <c r="M58" s="3">
         <v>48500</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>48500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>864000</v>
+      </c>
+      <c r="E59" s="3">
         <v>617500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>683100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>687900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>837200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>591600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>703700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1455700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>748800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>712100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>656200</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>2619400</v>
+      </c>
+      <c r="E60" s="3">
         <v>2156400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1967500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2015700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2192500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1866000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1510700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2464700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1884100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1938800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1733100</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>2054900</v>
+      </c>
+      <c r="E61" s="3">
         <v>2176600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2203100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2162900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2590700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2695500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2744300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1942400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1836800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1807900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1809000</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>489400</v>
+      </c>
+      <c r="E62" s="3">
         <v>466400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>500600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>501500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>577600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>609000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>651000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>623300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>635900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>616400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2469,8 +2618,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2504,8 +2656,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2539,43 +2694,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>5166500</v>
+      </c>
+      <c r="E66" s="3">
         <v>4802200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4673900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4683900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5364600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5174400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4910100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5034500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4360900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4367500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4124600</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2589,8 +2750,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2624,8 +2786,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2659,8 +2824,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2694,8 +2862,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2729,43 +2900,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-404300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-555700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-692000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-551900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-575900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-724400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-932300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1033900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-757000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-798800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-851900</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2799,8 +2976,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2834,8 +3014,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2869,43 +3052,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>-135600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-229600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-420700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-254300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-478700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-450600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-670100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-797700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-593800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-562800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-619300</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2939,83 +3128,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>209400</v>
+      </c>
+      <c r="E81" s="3">
         <v>127600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>212600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>244200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>264300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>198800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>126300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-226000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>118400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>135600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3029,43 +3227,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>74500</v>
+      </c>
+      <c r="E83" s="3">
         <v>67400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>65900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>65800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>68000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>64600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>64300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>63900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>63200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>59400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>56700</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3099,8 +3301,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3134,8 +3339,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3169,8 +3377,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3204,8 +3415,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3239,43 +3453,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>708800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-265700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>162000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>164900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>318600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>309000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>113900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>212700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>138800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>170500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>141700</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3289,43 +3509,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-309000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-111500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-122900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-85500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-107000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-78100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-33300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-34900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-116200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-69300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-56200</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3359,8 +3583,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3394,43 +3621,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-328900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-130800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-131000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-97000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-119800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-61700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-35200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-43600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-126200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-197400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-67500</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3444,26 +3677,27 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-10500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-10900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-11000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-9600</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -3471,16 +3705,19 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
-        <v>-8900</v>
+        <v>0</v>
       </c>
       <c r="L96" s="3">
         <v>-8900</v>
       </c>
       <c r="M96" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="N96" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3514,8 +3751,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3549,8 +3789,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3584,109 +3827,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-138500</v>
+      </c>
+      <c r="E100" s="3">
         <v>73500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-369800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-707900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-187700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-23200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>197800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>596900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-97300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-121300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>95800</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E101" s="3">
         <v>1900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>5200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>5300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>8900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-7800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>231500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-321100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-335500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-634800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>16400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>223200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>285400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>758200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-81400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-146500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>174800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
   <si>
     <t>DOO</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t xml:space="preserve">Change In Cash and Cash Equivalents </t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -653,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,181 +665,193 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43677</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1809300</v>
+      </c>
+      <c r="E8" s="3">
         <v>2347500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1588000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1903800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1808600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1815100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1674700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1233300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1229800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1615900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1643600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1459500</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1354900</v>
+      </c>
+      <c r="E9" s="3">
         <v>1738000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1177400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1333700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1266600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1313200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1187800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>984900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>994700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1232200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1201700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1131700</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>454400</v>
+      </c>
+      <c r="E10" s="3">
         <v>609500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>410600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>570100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>542000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>501900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>486900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>248400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>235100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>383700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>441900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>327800</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E12" s="3">
         <v>85100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>70600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>68300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>65800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>78900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>66000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>46900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>50500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>64700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>60300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>55900</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -927,46 +946,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="3">
         <v>-8600</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>29300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>177100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-40400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1003,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1609700</v>
+      </c>
+      <c r="E17" s="3">
         <v>2000900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1402500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1565400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1492100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1566000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1390400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1173800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1357100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1418500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1435600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1349600</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>199600</v>
+      </c>
+      <c r="E18" s="3">
         <v>346600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>185500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>338400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>316500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>249100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>284300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>59500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-127300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>197400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>208000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1108,198 +1143,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-45300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>8300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-26300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>8900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>101000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>9200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>93200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-86800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-13900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>255800</v>
+      </c>
+      <c r="E21" s="3">
         <v>375800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>261200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>378000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>391200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>418100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>358100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>217000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-150200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>246700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>265200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>190100</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E22" s="3">
         <v>12500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>14200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>13900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>15300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>25200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>25800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>26500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>20400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>20200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>21600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>169700</v>
+      </c>
+      <c r="E23" s="3">
         <v>288800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>179600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>298200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>310100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>324900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>267700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>126200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-234500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>163300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>184200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>114800</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E24" s="3">
         <v>79200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>51900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>85300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>65700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>60700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>69000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-8400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>45100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>48900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1336,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E26" s="3">
         <v>209600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>127700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>212900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>244400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>264200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>198700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>126100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-226100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>118200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>135300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>93300</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>120900</v>
+      </c>
+      <c r="E27" s="3">
         <v>209400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>127600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>212600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>244200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>264300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>198800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>126300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-226000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>118400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>135600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1450,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1488,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1526,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1564,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E32" s="3">
         <v>45300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-8300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>26300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-8900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-101000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-9200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-93200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>86800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>13900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>120900</v>
+      </c>
+      <c r="E33" s="3">
         <v>209400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>127600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>212600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>244200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>264300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>198800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>126300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-226000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>118400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>135600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1678,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>120900</v>
+      </c>
+      <c r="E35" s="3">
         <v>209400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>127600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>212600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>244200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>264300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>198800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>126300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-226000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>118400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>135600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43677</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1775,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1791,350 +1879,378 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E41" s="3">
         <v>265800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>34300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>355400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>690900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1325700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1309300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1086100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>800700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>42500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>123900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>270400</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>94600</v>
+      </c>
+      <c r="E42" s="3">
         <v>73600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>74400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>72500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>93300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>76500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>39900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>14800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>13400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>19100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>8500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>447400</v>
+      </c>
+      <c r="E43" s="3">
         <v>497300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>496400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>323400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>295700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>339900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>300600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>226900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>310400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>417500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>387100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>2001500</v>
+      </c>
+      <c r="E44" s="3">
         <v>1691300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1745300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1340600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1276900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1087300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1066500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>916200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1116500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1166300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1252300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1075600</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>168700</v>
+      </c>
+      <c r="E45" s="3">
         <v>140100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>58500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>44000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>38400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>32900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>31000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>26500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>28800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>26800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>26600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2767500</v>
+      </c>
+      <c r="E46" s="3">
         <v>2668100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2408900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2135900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2395200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2862300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2747300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2270500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2269800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1672200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1798400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1687100</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>127100</v>
+      </c>
+      <c r="E47" s="3">
         <v>77600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>69400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>59100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>61400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>50400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>43700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>42400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>34000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>32300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>32100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>1591100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1574600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1407200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1366500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1296200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1278500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1226500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1212300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1229800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1242100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1149000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1088600</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>505400</v>
+      </c>
+      <c r="E49" s="3">
         <v>494900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>480300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>466100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>464200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>465100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>460800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>466600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>472600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>610100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>607000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>490400</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2171,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2209,46 +2328,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>219600</v>
+      </c>
+      <c r="E52" s="3">
         <v>215700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>206800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>225600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>212600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>229600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>245500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>248200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>230600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>210400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>218200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>205200</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2285,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>5210700</v>
+      </c>
+      <c r="E54" s="3">
         <v>5030900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4572600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4253200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4429600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4885900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4723800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4240000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4236800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3767100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3804700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3505300</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2339,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2355,236 +2487,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1447200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1622900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1419900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1224000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1273200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1296500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1183600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>747800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>957000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1085800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1178200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1028400</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>459900</v>
+      </c>
+      <c r="E58" s="3">
         <v>132500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>119000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>60400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>54600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>58800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>90800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>59200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>52000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>49500</v>
-      </c>
-      <c r="M58" s="3">
-        <v>48500</v>
       </c>
       <c r="N58" s="3">
         <v>48500</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>48500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>1029100</v>
+      </c>
+      <c r="E59" s="3">
         <v>864000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>617500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>683100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>687900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>837200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>591600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>703700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1455700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>748800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>712100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>656200</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>2936200</v>
+      </c>
+      <c r="E60" s="3">
         <v>2619400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2156400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1967500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2015700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2192500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1866000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1510700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2464700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1884100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1938800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1733100</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>2060800</v>
+      </c>
+      <c r="E61" s="3">
         <v>2054900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2176600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2203100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2162900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2590700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2695500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2744300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1942400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1836800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1807900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1809000</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>425700</v>
+      </c>
+      <c r="E62" s="3">
         <v>489400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>466400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>500600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>501500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>577600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>609000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>651000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>623300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>635900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>616400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2621,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2659,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2697,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>5425600</v>
+      </c>
+      <c r="E66" s="3">
         <v>5166500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4802200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4673900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4683900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5364600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5174400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4910100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5034500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4360900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4367500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4124600</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2751,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2789,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2827,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2865,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2903,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-293600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-404300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-555700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-692000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-551900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-575900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-724400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-932300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1033900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-757000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-798800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-851900</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2979,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3017,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3055,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>-214900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-135600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-229600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-420700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-254300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-478700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-450600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-670100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-797700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-593800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-562800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-619300</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3131,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43677</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>120900</v>
+      </c>
+      <c r="E81" s="3">
         <v>209400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>127600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>212600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>244200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>264300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>198800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>126300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-226000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>118400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>135600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3228,46 +3428,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>71300</v>
+      </c>
+      <c r="E83" s="3">
         <v>74500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>67400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>65900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>65800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>68000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>64600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>64300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>63900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>63200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>59400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>56700</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3304,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3342,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3380,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3418,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3456,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-333100</v>
+      </c>
+      <c r="E89" s="3">
         <v>708800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-265700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>162000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>164900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>318600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>309000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>113900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>212700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>138800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>170500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>141700</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3510,46 +3732,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-92600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-309000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-111500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-122900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-85500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-107000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-78100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-33300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-34900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-116200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-69300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-56200</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3586,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3624,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-107500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-328900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-130800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-131000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-97000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-119800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-61700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-35200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-43600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-126200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-197400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-67500</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3678,29 +3913,30 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-10700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-10500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-10900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-11000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-9600</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -3708,16 +3944,19 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
-        <v>-8900</v>
+        <v>0</v>
       </c>
       <c r="M96" s="3">
         <v>-8900</v>
       </c>
       <c r="N96" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="O96" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3754,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3792,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3830,118 +4075,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>232500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-138500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>73500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-369800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-707900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-187700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-23200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>197800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>596900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-97300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-121300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>95800</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-9900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>5200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>5300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>8900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-7800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-210500</v>
+      </c>
+      <c r="E102" s="3">
         <v>231500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-321100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-335500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-634800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>16400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>223200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>285400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>758200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-81400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-146500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>174800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>DOO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2438500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1809300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2347500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1588000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1903800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1808600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1815100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1674700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1233300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1229800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1615900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1643600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1459500</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1835800</v>
+      </c>
+      <c r="E9" s="3">
         <v>1354900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1738000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1177400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1333700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1266600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1313200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1187800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>984900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>994700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1232200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1201700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1131700</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>602700</v>
+      </c>
+      <c r="E10" s="3">
         <v>454400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>609500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>410600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>570100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>542000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>501900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>486900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>248400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>235100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>383700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>441900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>327800</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>82100</v>
+      </c>
+      <c r="E12" s="3">
         <v>84000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>85100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>70600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>68300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>65800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>78900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>66000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>46900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>50500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>64700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>60300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>55900</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -949,49 +966,55 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="3">
         <v>-8600</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>29300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>177100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-40400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2092700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1609700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2000900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1402500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1565400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1492100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1566000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1390400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1173800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1357100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1418500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1435600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1349600</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>345800</v>
+      </c>
+      <c r="E18" s="3">
         <v>199600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>346600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>185500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>338400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>316500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>249100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>284300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>59500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-127300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>197400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>208000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1144,213 +1177,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-15100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-45300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>8300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-26300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>8900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>101000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>9200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>93200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-86800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-13900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>417800</v>
+      </c>
+      <c r="E21" s="3">
         <v>255800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>375800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>261200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>378000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>391200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>418100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>358100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>217000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-150200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>246700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>265200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>190100</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E22" s="3">
         <v>14800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>12500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>14200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>13900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>15300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>25200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>25800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>26500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>20400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>20200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>21600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>319700</v>
+      </c>
+      <c r="E23" s="3">
         <v>169700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>288800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>179600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>298200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>310100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>324900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>267700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>126200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-234500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>163300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>184200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>114800</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E24" s="3">
         <v>48700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>79200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>51900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>85300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>65700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>60700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>69000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-8400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>45100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>48900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>237700</v>
+      </c>
+      <c r="E26" s="3">
         <v>121000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>209600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>127700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>212900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>244400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>264200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>198700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>126100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-226100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>118200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>135300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>93300</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>236500</v>
+      </c>
+      <c r="E27" s="3">
         <v>120900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>209400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>127600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>212600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>244200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>264300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>198800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>126300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-226000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>118400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>135600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1636,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>800</v>
+      </c>
+      <c r="E32" s="3">
         <v>15100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>45300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-8300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>26300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-8900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-101000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-9200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-93200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>86800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>13900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>236500</v>
+      </c>
+      <c r="E33" s="3">
         <v>120900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>209400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>127600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>212600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>244200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>264300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>198800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>126300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-226000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>118400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>135600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>236500</v>
+      </c>
+      <c r="E35" s="3">
         <v>120900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>209400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>127600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>212600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>244200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>264300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>198800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>126300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-226000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>118400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>135600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1880,377 +1966,405 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>59100</v>
+      </c>
+      <c r="E41" s="3">
         <v>55300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>265800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>34300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>355400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>690900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1325700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1309300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1086100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>800700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>42500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>123900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>270400</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>114400</v>
+      </c>
+      <c r="E42" s="3">
         <v>94600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>73600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>74400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>72500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>93300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>76500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>39900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>13400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>19100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>8500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>410000</v>
+      </c>
+      <c r="E43" s="3">
         <v>447400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>497300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>496400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>323400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>295700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>339900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>300600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>226900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>310400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>417500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>387100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>2178000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2001500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1691300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1745300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1340600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1276900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1087300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1066500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>916200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1116500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1166300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1252300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1075600</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E45" s="3">
         <v>168700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>140100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>58500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>44000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>38400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>32900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>31000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>26500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>28800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>26800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>26600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2884500</v>
+      </c>
+      <c r="E46" s="3">
         <v>2767500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2668100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2408900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2135900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2395200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2862300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2747300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2270500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2269800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1672200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1798400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1687100</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>119300</v>
+      </c>
+      <c r="E47" s="3">
         <v>127100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>77600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>69400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>59100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>61400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>50400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>43700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>42400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>34000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>32300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>32100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>1621900</v>
+      </c>
+      <c r="E48" s="3">
         <v>1591100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1574600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1407200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1366500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1296200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1278500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1226500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1212300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1229800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1242100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1149000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1088600</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>515200</v>
+      </c>
+      <c r="E49" s="3">
         <v>505400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>494900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>480300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>466100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>464200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>465100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>460800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>466600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>472600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>610100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>607000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>490400</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2331,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>238400</v>
+      </c>
+      <c r="E52" s="3">
         <v>219600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>215700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>206800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>225600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>212600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>229600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>245500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>248200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>230600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>210400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>218200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>205200</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>5379300</v>
+      </c>
+      <c r="E54" s="3">
         <v>5210700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5030900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4572600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4253200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4429600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4885900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4723800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4240000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4236800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3767100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3804700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3505300</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2488,254 +2618,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1571400</v>
+      </c>
+      <c r="E57" s="3">
         <v>1447200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1622900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1419900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1224000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1273200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1296500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1183600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>747800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>957000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1085800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1178200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1028400</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>316000</v>
+      </c>
+      <c r="E58" s="3">
         <v>459900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>132500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>119000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>60400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>54600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>58800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>90800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>59200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>52000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>49500</v>
-      </c>
-      <c r="N58" s="3">
-        <v>48500</v>
       </c>
       <c r="O58" s="3">
         <v>48500</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>48500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>795800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1029100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>864000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>617500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>683100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>687900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>837200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>591600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>703700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1455700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>748800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>712100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>656200</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>2683200</v>
+      </c>
+      <c r="E60" s="3">
         <v>2936200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2619400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2156400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1967500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2015700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2192500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1866000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1510700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2464700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1884100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1938800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1733100</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>2264800</v>
+      </c>
+      <c r="E61" s="3">
         <v>2060800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2054900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2176600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2203100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2162900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2590700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2695500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2744300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1942400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1836800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1807900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1809000</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>422100</v>
+      </c>
+      <c r="E62" s="3">
         <v>425700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>489400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>466400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>500600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>501500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>577600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>609000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>651000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>623300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>635900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>616400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2857,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>5373800</v>
+      </c>
+      <c r="E66" s="3">
         <v>5425600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5166500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4802200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4673900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4683900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5364600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5174400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4910100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5034500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4360900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4367500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4124600</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-299300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-293600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-404300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-555700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-692000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-551900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-575900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-724400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-932300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1033900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-757000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-798800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-851900</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-214900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-135600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-229600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-420700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-254300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-478700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-450600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-670100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-797700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-593800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-562800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-619300</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>236500</v>
+      </c>
+      <c r="E81" s="3">
         <v>120900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>209400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>127600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>212600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>244200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>264300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>198800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>126300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-226000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>118400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>135600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3429,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>72800</v>
+      </c>
+      <c r="E83" s="3">
         <v>71300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>74500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>67400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>65900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>65800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>68000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>64600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>64300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>63900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>63200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>59400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>56700</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>332100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-333100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>708800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-265700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>162000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>164900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>318600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>309000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>113900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>212700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>138800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>170500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>141700</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3733,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-99600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-92600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-309000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-111500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-122900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-85500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-107000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-78100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-33300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-34900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-116200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-69300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-56200</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3856,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-115000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-107500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-328900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-130800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-131000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-97000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-119800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-61700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-35200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-43600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-126200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-197400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-67500</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3914,32 +4147,33 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-13000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-10700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-10500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-10900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-11000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-9600</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -3947,16 +4181,19 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
-        <v>-8900</v>
+        <v>0</v>
       </c>
       <c r="N96" s="3">
         <v>-8900</v>
       </c>
       <c r="O96" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="P96" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4078,127 +4321,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-224700</v>
+      </c>
+      <c r="E100" s="3">
         <v>232500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-138500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>73500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-369800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-707900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-187700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-23200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>197800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>596900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-97300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-121300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>95800</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-9900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>5200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>5300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>8900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-7800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-210500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>231500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-321100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-335500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-634800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>16400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>223200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>285400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>758200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-81400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-146500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>174800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t>DOO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43677</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2709300</v>
+      </c>
+      <c r="E8" s="3">
         <v>2438500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1809300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2347500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1588000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1903800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1808600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1815100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1674700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1233300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1229800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1615900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1643600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1459500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2054600</v>
+      </c>
+      <c r="E9" s="3">
         <v>1835800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1354900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1738000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1177400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1333700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1266600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1313200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1187800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>984900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>994700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1232200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1201700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1131700</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>654700</v>
+      </c>
+      <c r="E10" s="3">
         <v>602700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>454400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>609500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>410600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>570100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>542000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>501900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>486900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>248400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>235100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>383700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>441900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>327800</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>80600</v>
+      </c>
+      <c r="E12" s="3">
         <v>82100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>84000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>85100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>70600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>68300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>65800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>78900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>66000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>46900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>50500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>64700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>60300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>55900</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -980,41 +1000,44 @@
       <c r="E14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="3">
         <v>-8600</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>29300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>177100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-40400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2324500</v>
+      </c>
+      <c r="E17" s="3">
         <v>2092700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1609700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2000900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1402500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1565400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1492100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1566000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1390400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1173800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1357100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1418500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1435600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1349600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>384800</v>
+      </c>
+      <c r="E18" s="3">
         <v>345800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>199600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>346600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>185500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>338400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>316500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>249100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>284300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>59500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-127300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>197400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>208000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,228 +1211,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-134700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-15100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-45300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>8300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-26300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>8900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>101000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>93200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-86800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-13900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>326400</v>
+      </c>
+      <c r="E21" s="3">
         <v>417800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>255800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>375800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>261200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>378000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>391200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>418100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>358100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>217000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-150200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>246700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>265200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>190100</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E22" s="3">
         <v>25300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>14800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>12500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>14200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>13900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>15300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>25200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>25800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>26500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>20400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>20200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>21600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>219400</v>
+      </c>
+      <c r="E23" s="3">
         <v>319700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>169700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>288800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>179600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>298200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>310100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>324900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>267700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>126200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-234500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>163300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>184200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>114800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>77800</v>
+      </c>
+      <c r="E24" s="3">
         <v>82000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>48700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>79200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>51900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>85300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>65700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>60700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>69000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-8400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>45100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>48900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>141600</v>
+      </c>
+      <c r="E26" s="3">
         <v>237700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>121000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>209600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>127700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>212900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>244400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>264200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>198700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>126100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-226100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>118200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>135300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>93300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>141200</v>
+      </c>
+      <c r="E27" s="3">
         <v>236500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>120900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>209400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>127600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>212600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>244200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>264300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>198800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>126300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-226000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>118400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>135600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>134700</v>
+      </c>
+      <c r="E32" s="3">
         <v>800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>15100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>45300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-8300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>26300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-8900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-101000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-93200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>86800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>13900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>141200</v>
+      </c>
+      <c r="E33" s="3">
         <v>236500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>120900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>209400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>127600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>212600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>244200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>264300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>198800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>126300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-226000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>118400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>135600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>141200</v>
+      </c>
+      <c r="E35" s="3">
         <v>236500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>120900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>209400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>127600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>212600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>244200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>264300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>198800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>126300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-226000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>118400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>135600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43677</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1967,404 +2053,432 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>59900</v>
+      </c>
+      <c r="E41" s="3">
         <v>59100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>55300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>265800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>34300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>355400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>690900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1325700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1309300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1086100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>800700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>42500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>123900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>270400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>85500</v>
+      </c>
+      <c r="E42" s="3">
         <v>114400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>94600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>73600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>74400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>72500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>93300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>76500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>39900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>13400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>19100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>8500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>555300</v>
+      </c>
+      <c r="E43" s="3">
         <v>410000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>447400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>497300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>496400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>323400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>295700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>339900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>300600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>226900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>310400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>417500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>387100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>2474800</v>
+      </c>
+      <c r="E44" s="3">
         <v>2178000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2001500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1691300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1745300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1340600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1276900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1087300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1066500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>916200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1116500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1166300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1252300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1075600</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>72400</v>
+      </c>
+      <c r="E45" s="3">
         <v>123000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>168700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>140100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>58500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>44000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>38400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>32900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>31000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>26500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>28800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>26800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>26600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>3247900</v>
+      </c>
+      <c r="E46" s="3">
         <v>2884500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2767500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2668100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2408900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2135900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2395200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2862300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2747300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2270500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2269800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1672200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1798400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1687100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>163500</v>
+      </c>
+      <c r="E47" s="3">
         <v>119300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>127100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>77600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>69400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>59100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>61400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>50400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>43700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>42400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>34000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>32300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>32100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>1758500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1621900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1591100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1574600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1407200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1366500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1296200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1278500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1226500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1212300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1229800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1242100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1149000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1088600</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>735400</v>
+      </c>
+      <c r="E49" s="3">
         <v>515200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>505400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>494900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>480300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>466100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>464200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>465100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>460800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>466600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>472600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>610100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>607000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>490400</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>245700</v>
+      </c>
+      <c r="E52" s="3">
         <v>238400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>219600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>215700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>206800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>225600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>212600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>229600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>245500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>248200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>230600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>210400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>218200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>205200</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>6151000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5379300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5210700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5030900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4572600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4253200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4429600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4885900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4723800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4240000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4236800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3767100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3804700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3505300</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2619,272 +2749,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1858400</v>
+      </c>
+      <c r="E57" s="3">
         <v>1571400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1447200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1622900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1419900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1224000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1273200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1296500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1183600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>747800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>957000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1085800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1178200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1028400</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>450100</v>
+      </c>
+      <c r="E58" s="3">
         <v>316000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>459900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>132500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>119000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>60400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>54600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>58800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>90800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>59200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>52000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>49500</v>
-      </c>
-      <c r="O58" s="3">
-        <v>48500</v>
       </c>
       <c r="P58" s="3">
         <v>48500</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>48500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>803900</v>
+      </c>
+      <c r="E59" s="3">
         <v>795800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1029100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>864000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>617500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>683100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>687900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>837200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>591600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>703700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1455700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>748800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>712100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>656200</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>3112400</v>
+      </c>
+      <c r="E60" s="3">
         <v>2683200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2936200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2619400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2156400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1967500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2015700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2192500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1866000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1510700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2464700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1884100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1938800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1733100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>2405600</v>
+      </c>
+      <c r="E61" s="3">
         <v>2264800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2060800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2054900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2176600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2203100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2162900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2590700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2695500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2744300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1942400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1836800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1807900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1809000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>463200</v>
+      </c>
+      <c r="E62" s="3">
         <v>422100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>425700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>489400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>466400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>500600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>501500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>577600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>609000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>651000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>623300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>635900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>616400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>5984900</v>
+      </c>
+      <c r="E66" s="3">
         <v>5373800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5425600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5166500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4802200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4673900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4683900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5364600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5174400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4910100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5034500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4360900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4367500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4124600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-129300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-299300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-293600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-404300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-555700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-692000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-551900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-575900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-724400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-932300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1033900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-757000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-798800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-851900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>166100</v>
+      </c>
+      <c r="E76" s="3">
         <v>5500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-214900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-135600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-229600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-420700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-254300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-478700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-450600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-670100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-797700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-593800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-562800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-619300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43677</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>141200</v>
+      </c>
+      <c r="E81" s="3">
         <v>236500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>120900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>209400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>127600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>212600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>244200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>264300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>198800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>126300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-226000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>118400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>135600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>76300</v>
+      </c>
+      <c r="E83" s="3">
         <v>72800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>71300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>74500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>67400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>65900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>65800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>68000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>64600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>64300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>63900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>63200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>59400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>56700</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>343300</v>
+      </c>
+      <c r="E89" s="3">
         <v>332100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-333100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>708800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-265700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>162000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>164900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>318600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>309000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>113900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>212700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>138800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>170500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>141700</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-160900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-99600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-92600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-309000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-111500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-122900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-85500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-107000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-78100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-33300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-34900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-116200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-69300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-56200</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-377000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-115000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-107500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-328900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-130800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-131000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-97000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-119800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-61700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-35200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-43600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-126200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-197400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-67500</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -4157,26 +4391,26 @@
         <v>-12600</v>
       </c>
       <c r="E96" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="F96" s="3">
         <v>-13000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-10700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-10500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-10900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-11000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-9600</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -4184,16 +4418,19 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
-        <v>-8900</v>
+        <v>0</v>
       </c>
       <c r="O96" s="3">
         <v>-8900</v>
       </c>
       <c r="P96" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>72800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-224700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>232500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-138500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>73500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-369800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-707900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-187700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-23200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>197800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>596900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-97300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-121300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>95800</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="E101" s="3">
         <v>11400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-9900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>5200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>5300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>8900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-7800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>800</v>
+      </c>
+      <c r="E102" s="3">
         <v>3800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-210500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>231500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-321100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-335500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-634800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>16400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>223200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>285400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>758200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-81400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-146500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>174800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
         <v>44865</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3076300</v>
+      </c>
+      <c r="E8" s="3">
         <v>2709300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2438500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1809300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2347500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1588000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1903800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1808600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1815100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1674700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1233300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1229800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1615900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1643600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1459500</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2288700</v>
+      </c>
+      <c r="E9" s="3">
         <v>2054600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1835800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1354900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1738000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1177400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1333700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1266600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1313200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1187800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>984900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>994700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1232200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1201700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1131700</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>787600</v>
+      </c>
+      <c r="E10" s="3">
         <v>654700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>602700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>454400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>609500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>410600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>570100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>542000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>501900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>486900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>248400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>235100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>383700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>441900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>327800</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E12" s="3">
         <v>80600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>82100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>84000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>85100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>70600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>68300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>65800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>78900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>66000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>46900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>50500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>64700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>60300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>55900</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,13 +1006,16 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>91</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>91</v>
@@ -1003,41 +1023,44 @@
       <c r="F14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="3">
         <v>-8600</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>29300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>177100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-40400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2639400</v>
+      </c>
+      <c r="E17" s="3">
         <v>2324500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2092700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1609700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2000900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1402500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1565400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1492100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1566000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1390400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1173800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1357100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1418500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1435600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1349600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>436900</v>
+      </c>
+      <c r="E18" s="3">
         <v>384800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>345800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>199600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>346600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>185500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>338400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>316500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>249100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>284300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>59500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-127300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>197400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>208000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1212,243 +1245,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-134700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-15100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-45300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>8300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-26300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>8900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>101000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>9200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>93200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-86800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-13900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>585900</v>
+      </c>
+      <c r="E21" s="3">
         <v>326400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>417800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>255800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>375800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>261200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>378000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>391200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>418100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>358100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>217000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-150200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>246700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>265200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>190100</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E22" s="3">
         <v>30700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>25300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>14800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>12500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>14200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>13900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>15300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>25200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>25800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>26500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>20400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>20200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>21600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>457100</v>
+      </c>
+      <c r="E23" s="3">
         <v>219400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>319700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>169700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>288800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>179600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>298200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>310100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>324900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>267700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>126200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-234500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>163300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>184200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>114800</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E24" s="3">
         <v>77800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>82000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>48700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>79200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>51900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>85300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>65700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>60700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>69000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-8400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>45100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>48900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>365100</v>
+      </c>
+      <c r="E26" s="3">
         <v>141600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>237700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>121000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>209600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>127700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>212900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>244400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>264200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>198700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>126100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-226100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>118200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>135300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>93300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>365300</v>
+      </c>
+      <c r="E27" s="3">
         <v>141200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>236500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>120900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>209400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>127600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>212600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>244200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>264300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>198800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>126300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-226000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>118400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>135600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E32" s="3">
         <v>134700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>15100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>45300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-8300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>26300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-8900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-101000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-9200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-93200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>86800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>13900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>365300</v>
+      </c>
+      <c r="E33" s="3">
         <v>141200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>236500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>120900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>209400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>127600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>212600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>244200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>264300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>198800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>126300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-226000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>118400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>135600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>365300</v>
+      </c>
+      <c r="E35" s="3">
         <v>141200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>236500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>120900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>209400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>127600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>212600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>244200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>264300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>198800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>126300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-226000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>118400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>135600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
         <v>44865</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2054,431 +2140,459 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>202300</v>
+      </c>
+      <c r="E41" s="3">
         <v>59900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>59100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>55300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>265800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>34300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>355400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>690900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1325700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1309300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1086100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>800700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>42500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>123900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>270400</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>122600</v>
+      </c>
+      <c r="E42" s="3">
         <v>85500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>114400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>94600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>73600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>74400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>72500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>93300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>76500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>39900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>14800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>13400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>19100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>8500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>698900</v>
+      </c>
+      <c r="E43" s="3">
         <v>555300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>410000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>447400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>497300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>496400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>323400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>295700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>339900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>300600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>226900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>310400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>417500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>387100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>2290100</v>
+      </c>
+      <c r="E44" s="3">
         <v>2474800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2178000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2001500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1691300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1745300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1340600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1276900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1087300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1066500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>916200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1116500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1166300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1252300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1075600</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>66700</v>
+      </c>
+      <c r="E45" s="3">
         <v>72400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>123000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>168700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>140100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>58500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>44000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>38400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>32900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>31000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>26500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>28800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>26800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>26600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>3380600</v>
+      </c>
+      <c r="E46" s="3">
         <v>3247900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2884500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2767500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2668100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2408900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2135900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2395200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2862300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2747300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2270500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2269800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1672200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1798400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1687100</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>90800</v>
+      </c>
+      <c r="E47" s="3">
         <v>163500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>119300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>127100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>77600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>69400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>59100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>61400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>50400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>43700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>42400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>34000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>32300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>32100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>1990700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1758500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1621900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1591100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1574600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1407200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1366500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1296200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1278500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1226500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1212300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1229800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1242100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1149000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1088600</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>741300</v>
+      </c>
+      <c r="E49" s="3">
         <v>735400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>515200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>505400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>494900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>480300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>466100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>464200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>465100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>460800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>466600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>472600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>610100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>607000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>490400</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>261200</v>
+      </c>
+      <c r="E52" s="3">
         <v>245700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>238400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>219600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>215700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>206800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>225600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>212600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>229600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>245500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>248200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>230600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>210400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>218200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>205200</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>6464600</v>
+      </c>
+      <c r="E54" s="3">
         <v>6151000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5379300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5210700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5030900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4572600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4253200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4429600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4885900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4723800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4240000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4236800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3767100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3804700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3505300</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2750,290 +2880,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1548200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1858400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1571400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1447200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1622900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1419900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1224000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1273200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1296500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1183600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>747800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>957000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1085800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1178200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1028400</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>133100</v>
+      </c>
+      <c r="E58" s="3">
         <v>450100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>316000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>459900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>132500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>119000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>60400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>54600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>58800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>90800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>59200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>52000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>49500</v>
-      </c>
-      <c r="P58" s="3">
-        <v>48500</v>
       </c>
       <c r="Q58" s="3">
         <v>48500</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>48500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>802000</v>
+      </c>
+      <c r="E59" s="3">
         <v>803900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>795800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1029100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>864000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>617500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>683100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>687900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>837200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>591600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>703700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1455700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>748800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>712100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>656200</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>2483300</v>
+      </c>
+      <c r="E60" s="3">
         <v>3112400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2683200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2936200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2619400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2156400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1967500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2015700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2192500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1866000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1510700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2464700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1884100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1938800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1733100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>2883000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2405600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2264800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2060800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2054900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2176600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2203100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2162900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2590700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2695500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2744300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1942400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1836800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1807900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1809000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>558200</v>
+      </c>
+      <c r="E62" s="3">
         <v>463200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>422100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>425700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>489400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>466400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>500600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>501500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>577600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>609000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>651000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>623300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>635900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>616400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>5929700</v>
+      </c>
+      <c r="E66" s="3">
         <v>5984900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5373800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5425600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5166500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4802200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4673900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4683900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5364600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5174400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4910100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5034500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4360900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4367500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4124600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>175500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-129300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-299300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-293600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-404300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-555700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-692000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-551900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-575900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-724400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-932300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1033900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-757000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-798800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-851900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>534900</v>
+      </c>
+      <c r="E76" s="3">
         <v>166100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-214900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-135600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-229600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-420700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-254300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-478700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-450600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-670100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-797700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-593800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-562800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-619300</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
         <v>44865</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>365300</v>
+      </c>
+      <c r="E81" s="3">
         <v>141200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>236500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>120900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>209400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>127600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>212600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>244200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>264300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>198800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>126300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-226000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>118400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>135600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3827,55 +4025,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E83" s="3">
         <v>76300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>72800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>71300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>74500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>67400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>65900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>65800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>68000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>64600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>64300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>63900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>63200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>59400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>56700</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>307200</v>
+      </c>
+      <c r="E89" s="3">
         <v>343300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>332100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-333100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>708800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-265700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>162000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>164900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>318600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>309000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>113900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>212700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>138800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>170500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>141700</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-160900</v>
+        <v>-262900</v>
       </c>
       <c r="E91" s="3">
-        <v>-99600</v>
+        <v>-175500</v>
       </c>
       <c r="F91" s="3">
-        <v>-92600</v>
+        <v>-112000</v>
       </c>
       <c r="G91" s="3">
-        <v>-309000</v>
+        <v>-109000</v>
       </c>
       <c r="H91" s="3">
-        <v>-111500</v>
+        <v>-333000</v>
       </c>
       <c r="I91" s="3">
-        <v>-122900</v>
+        <v>-135800</v>
       </c>
       <c r="J91" s="3">
+        <v>-131700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-85500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-107000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-78100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-33300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-34900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-116200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-69300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-56200</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-253900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-377000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-115000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-107500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-328900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-130800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-131000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-97000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-119800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-61700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-35200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-43600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-126200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-197400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-67500</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -4394,26 +4628,26 @@
         <v>-12600</v>
       </c>
       <c r="F96" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="G96" s="3">
         <v>-13000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-10700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-10500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-10900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-11000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-9600</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -4421,16 +4655,19 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
-        <v>-8900</v>
+        <v>0</v>
       </c>
       <c r="P96" s="3">
         <v>-8900</v>
       </c>
       <c r="Q96" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="R96" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4570,145 +4813,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>109700</v>
+      </c>
+      <c r="E100" s="3">
         <v>72800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-224700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>232500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-138500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>73500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-369800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-707900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-187700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-23200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>197800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>596900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-97300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-121300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>95800</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-38300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>11400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-9900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>5200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>8900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-7800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>142400</v>
+      </c>
+      <c r="E102" s="3">
         <v>800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-210500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>231500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-321100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-335500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-634800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>16400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>223200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>285400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>758200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-81400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-146500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>174800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
   <si>
     <t>DOO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,244 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43677</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2429400</v>
+      </c>
+      <c r="E8" s="3">
         <v>3076300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2709300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2438500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1809300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2347500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1588000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1903800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1808600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1815100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1674700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1233300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1229800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1615900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1643600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1459500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1805900</v>
+      </c>
+      <c r="E9" s="3">
         <v>2288700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2054600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1835800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1354900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1738000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1177400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1333700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1266600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1313200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1187800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>984900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>994700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1232200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1201700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1131700</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>623500</v>
+      </c>
+      <c r="E10" s="3">
         <v>787600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>654700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>602700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>454400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>609500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>410600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>570100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>542000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>501900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>486900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>248400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>235100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>383700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>441900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>327800</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>101700</v>
+      </c>
+      <c r="E12" s="3">
         <v>121000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>80600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>82100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>84000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>85100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>70600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>68300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>65800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>78900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>66000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>46900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>50500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>64700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>60300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>55900</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,16 +1025,19 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>91</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>91</v>
@@ -1026,41 +1045,44 @@
       <c r="G14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="3">
         <v>-8600</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>29300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>177100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-40400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2147500</v>
+      </c>
+      <c r="E17" s="3">
         <v>2639400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2324500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2092700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1609700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2000900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1402500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1565400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1492100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1566000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1390400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1173800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1357100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1418500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1435600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1349600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>281900</v>
+      </c>
+      <c r="E18" s="3">
         <v>436900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>384800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>345800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>199600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>346600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>185500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>338400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>316500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>249100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>284300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>59500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-127300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>197400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>208000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1246,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-44100</v>
+      </c>
+      <c r="E20" s="3">
         <v>59000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-134700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-15100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-45300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>8300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-26300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>101000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>9200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>93200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-86800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-13900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>330200</v>
+      </c>
+      <c r="E21" s="3">
         <v>585900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>326400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>417800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>255800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>375800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>261200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>378000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>391200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>418100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>358100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>217000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-150200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>246700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>265200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>190100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E22" s="3">
         <v>38800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>30700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>25300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>14800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>12500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>14200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>13900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>25200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>25800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>26500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>20400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>20200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>21600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>195700</v>
+      </c>
+      <c r="E23" s="3">
         <v>457100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>219400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>319700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>169700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>288800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>179600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>298200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>310100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>324900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>267700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>126200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-234500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>163300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>184200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>114800</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E24" s="3">
         <v>92000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>77800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>82000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>48700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>79200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>51900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>85300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>65700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>60700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>69000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-8400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>45100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>48900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>154500</v>
+      </c>
+      <c r="E26" s="3">
         <v>365100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>141600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>237700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>121000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>209600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>127700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>212900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>244400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>264200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>198700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>126100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-226100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>118200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>135300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>93300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>154200</v>
+      </c>
+      <c r="E27" s="3">
         <v>365300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>141200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>236500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>120900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>209400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>127600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>212600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>244200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>264300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>198800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>126300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-226000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>118400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>135600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1846,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-59000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>134700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>15100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>45300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-8300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>26300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-101000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-9200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-93200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>86800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>13900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>154200</v>
+      </c>
+      <c r="E33" s="3">
         <v>365300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>141200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>236500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>120900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>209400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>127600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>212600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>244200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>264300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>198800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>126300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-226000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>118400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>135600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>154200</v>
+      </c>
+      <c r="E35" s="3">
         <v>365300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>141200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>236500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>120900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>209400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>127600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>212600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>244200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>264300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>198800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>126300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-226000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>118400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>135600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43677</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2141,458 +2226,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>213000</v>
+      </c>
+      <c r="E41" s="3">
         <v>202300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>59900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>59100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>55300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>265800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>34300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>355400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>690900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1325700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1309300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1086100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>800700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>42500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>123900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>270400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>125400</v>
+      </c>
+      <c r="E42" s="3">
         <v>122600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>85500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>114400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>94600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>73600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>74400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>72500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>93300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>76500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>39900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>14800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>13400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>19100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>8500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>650800</v>
+      </c>
+      <c r="E43" s="3">
         <v>698900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>555300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>410000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>447400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>497300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>496400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>323400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>295700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>339900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>300600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>226900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>310400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>417500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>387100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>2503000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2290100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2474800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2178000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2001500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1691300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1745300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1340600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1276900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1087300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1066500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>916200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1116500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1166300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1252300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1075600</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>56600</v>
+      </c>
+      <c r="E45" s="3">
         <v>66700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>72400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>123000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>168700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>140100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>58500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>44000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>38400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>32900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>31000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>26500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>28800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>26800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>26600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>3548800</v>
+      </c>
+      <c r="E46" s="3">
         <v>3380600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3247900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2884500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2767500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2668100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2408900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2135900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2395200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2862300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2747300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2270500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2269800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1672200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1798400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1687100</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>85900</v>
+      </c>
+      <c r="E47" s="3">
         <v>90800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>163500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>119300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>127100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>77600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>69400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>59100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>61400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>50400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>43700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>42400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>34000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>32300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>32100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>2047400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1990700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1758500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1621900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1591100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1574600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1407200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1366500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1296200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1278500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1226500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1212300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1229800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1242100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1149000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1088600</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>738700</v>
+      </c>
+      <c r="E49" s="3">
         <v>741300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>735400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>515200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>505400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>494900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>480300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>466100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>464200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>465100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>460800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>466600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>472600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>610100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>607000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>490400</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2691,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>290900</v>
+      </c>
+      <c r="E52" s="3">
         <v>261200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>245700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>238400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>219600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>215700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>206800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>225600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>212600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>229600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>245500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>248200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>230600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>210400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>218200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>205200</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2791,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>6711700</v>
+      </c>
+      <c r="E54" s="3">
         <v>6464600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6151000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5379300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5210700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5030900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4572600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4253200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4429600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4885900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4723800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4240000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4236800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3767100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3804700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3505300</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2881,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1603400</v>
+      </c>
+      <c r="E57" s="3">
         <v>1548200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1858400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1571400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1447200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1622900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1419900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1224000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1273200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1296500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1183600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>747800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>957000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1085800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1178200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1028400</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>136500</v>
+      </c>
+      <c r="E58" s="3">
         <v>133100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>450100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>316000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>459900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>132500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>119000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>60400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>54600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>58800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>90800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>59200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>52000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>49500</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>48500</v>
       </c>
       <c r="R58" s="3">
         <v>48500</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>48500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>912700</v>
+      </c>
+      <c r="E59" s="3">
         <v>802000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>803900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>795800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1029100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>864000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>617500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>683100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>687900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>837200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>591600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>703700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1455700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>748800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>712100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>656200</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>2652600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2483300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3112400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2683200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2936200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2619400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2156400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1967500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2015700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2192500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1866000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1510700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2464700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1884100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1938800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1733100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>2923800</v>
+      </c>
+      <c r="E61" s="3">
         <v>2883000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2405600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2264800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2060800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2054900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2176600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2203100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2162900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2590700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2695500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2744300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1942400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1836800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1807900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1809000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>557700</v>
+      </c>
+      <c r="E62" s="3">
         <v>558200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>463200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>422100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>425700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>489400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>466400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>500600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>501500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>577600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>609000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>651000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>623300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>635900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>616400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3331,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>6138800</v>
+      </c>
+      <c r="E66" s="3">
         <v>5929700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5984900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5373800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5425600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5166500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4802200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4673900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4683900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5364600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5174400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4910100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5034500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4360900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4367500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4124600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3601,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>263200</v>
+      </c>
+      <c r="E72" s="3">
         <v>175500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-129300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-299300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-293600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-404300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-555700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-692000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-551900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-575900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-724400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-932300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1033900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-757000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-798800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-851900</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3801,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>572900</v>
+      </c>
+      <c r="E76" s="3">
         <v>534900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>166100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-214900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-135600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-229600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-420700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-254300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-478700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-450600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-670100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-797700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-593800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-562800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-619300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43677</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>154200</v>
+      </c>
+      <c r="E81" s="3">
         <v>365300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>141200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>236500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>120900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>209400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>127600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>212600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>244200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>264300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>198800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>126300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-226000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>118400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>135600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4026,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>92400</v>
+      </c>
+      <c r="E83" s="3">
         <v>90000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>76300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>72800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>71300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>74500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>67400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>65900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>65800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>68000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>64600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>64300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>63900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>63200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>59400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>56700</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4326,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>258800</v>
+      </c>
+      <c r="E89" s="3">
         <v>307200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>343300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>332100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-333100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>708800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-265700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>162000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>164900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>318600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>309000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>113900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>212700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>138800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>170500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>141700</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4396,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-117800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-262900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-175500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-112000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-109000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-333000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-135800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-131700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-85500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-107000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-78100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-33300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-34900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-116200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-69300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-56200</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4546,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-115600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-253900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-377000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-115000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-107500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-328900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-130800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-131000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-97000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-119800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-61700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-35200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-43600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-126200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-197400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-67500</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4616,13 +4848,14 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-12600</v>
+        <v>-14200</v>
       </c>
       <c r="E96" s="3">
         <v>-12600</v>
@@ -4631,26 +4864,26 @@
         <v>-12600</v>
       </c>
       <c r="G96" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="H96" s="3">
         <v>-13000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-10700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-10500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-10900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-11000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-9600</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -4658,16 +4891,19 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
-        <v>-8900</v>
+        <v>0</v>
       </c>
       <c r="Q96" s="3">
         <v>-8900</v>
       </c>
       <c r="R96" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="S96" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4816,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-115300</v>
+      </c>
+      <c r="E100" s="3">
         <v>109700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>72800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-224700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>232500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-138500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>73500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-369800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-707900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-187700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-23200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>197800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>596900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-97300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-121300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>95800</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-20600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-38300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>11400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-9900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>8900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-7800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E102" s="3">
         <v>142400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-210500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>231500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-321100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-335500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-634800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>16400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>223200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>285400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>758200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-81400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-146500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>174800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>DOO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43951</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43769</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43677</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2778000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2429400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3076300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2709300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2438500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1809300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2347500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1588000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1903800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1808600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1815100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1674700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1233300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1229800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1615900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1643600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1459500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2080400</v>
+      </c>
+      <c r="E9" s="3">
         <v>1805900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2288700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2054600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1835800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1354900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1738000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1177400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1333700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1266600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1313200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1187800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>984900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>994700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1232200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1201700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1131700</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>697600</v>
+      </c>
+      <c r="E10" s="3">
         <v>623500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>787600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>654700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>602700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>454400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>609500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>410600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>570100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>542000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>501900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>486900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>248400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>235100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>383700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>441900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>327800</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>102700</v>
+      </c>
+      <c r="E12" s="3">
         <v>101700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>121000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>80600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>82100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>84000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>85100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>70600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>68300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>65800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>78900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>66000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>46900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>50500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>64700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>60300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>55900</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,19 +1045,22 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>91</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>91</v>
@@ -1048,41 +1068,44 @@
       <c r="H14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="3">
         <v>-8600</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>29300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>177100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-40400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2399200</v>
+      </c>
+      <c r="E17" s="3">
         <v>2147500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2639400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2324500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2092700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1609700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2000900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1402500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1565400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1492100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1566000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1390400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1173800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1357100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1418500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1435600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1349600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>378800</v>
+      </c>
+      <c r="E18" s="3">
         <v>281900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>436900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>384800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>345800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>199600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>346600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>185500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>338400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>316500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>249100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>284300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>59500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-127300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>197400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>208000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-44100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>59000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-134700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-15100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-45300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>8300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-26300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>8900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>101000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>9200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>93200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-86800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-13900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>554500</v>
+      </c>
+      <c r="E21" s="3">
         <v>330200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>585900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>326400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>417800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>255800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>375800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>261200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>378000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>391200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>418100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>358100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>217000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-150200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>246700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>265200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>190100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E22" s="3">
         <v>42100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>38800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>30700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>25300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>14800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>12500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>14200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>13900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>25200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>25800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>26500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>20400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>20200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>21600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>414700</v>
+      </c>
+      <c r="E23" s="3">
         <v>195700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>457100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>219400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>319700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>169700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>288800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>179600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>298200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>310100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>324900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>267700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>126200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-234500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>163300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>184200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>114800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E24" s="3">
         <v>41200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>92000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>77800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>82000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>48700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>79200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>51900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>85300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>65700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>60700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>69000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>45100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>48900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>338700</v>
+      </c>
+      <c r="E26" s="3">
         <v>154500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>365100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>141600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>237700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>121000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>209600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>127700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>212900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>244400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>264200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>198700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>126100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-226100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>118200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>135300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>93300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>337700</v>
+      </c>
+      <c r="E27" s="3">
         <v>154200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>365300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>141200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>236500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>120900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>209400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>127600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>212600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>244200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>264300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>198800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>126300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-226000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>118400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>135600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="E32" s="3">
         <v>44100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-59000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>134700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>15100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>45300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-8300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>26300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-8900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-101000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-9200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-93200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>86800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>13900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>337700</v>
+      </c>
+      <c r="E33" s="3">
         <v>154200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>365300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>141200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>236500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>120900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>209400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>127600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>212600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>244200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>264300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>198800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>126300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-226000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>118400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>135600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>337700</v>
+      </c>
+      <c r="E35" s="3">
         <v>154200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>365300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>141200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>236500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>120900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>209400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>127600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>212600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>244200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>264300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>198800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>126300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-226000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>118400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>135600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43951</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43769</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43677</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2227,485 +2313,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>388500</v>
+      </c>
+      <c r="E41" s="3">
         <v>213000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>202300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>59900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>59100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>55300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>265800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>34300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>355400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>690900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1325700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1309300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1086100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>800700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>42500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>123900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>270400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>141100</v>
+      </c>
+      <c r="E42" s="3">
         <v>125400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>122600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>85500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>114400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>94600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>73600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>74400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>72500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>93300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>76500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>39900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>14800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>13400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>19100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>8500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>541200</v>
+      </c>
+      <c r="E43" s="3">
         <v>650800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>698900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>555300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>410000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>447400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>497300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>496400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>323400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>295700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>339900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>300600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>226900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>310400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>417500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>387100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>2352600</v>
+      </c>
+      <c r="E44" s="3">
         <v>2503000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2290100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2474800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2178000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2001500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1691300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1745300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1340600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1276900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1087300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1066500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>916200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1116500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1166300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1252300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1075600</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E45" s="3">
         <v>56600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>66700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>72400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>123000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>168700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>140100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>58500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>44000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>38400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>32900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>31000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>26500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>28800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>26800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>26600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>3498400</v>
+      </c>
+      <c r="E46" s="3">
         <v>3548800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3380600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3247900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2884500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2767500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2668100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2408900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2135900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2395200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2862300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2747300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2270500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2269800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1672200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1798400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1687100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>101700</v>
+      </c>
+      <c r="E47" s="3">
         <v>85900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>90800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>163500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>119300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>127100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>77600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>69400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>59100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>61400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>50400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>43700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>42400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>34000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>32300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>32100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>2033700</v>
+      </c>
+      <c r="E48" s="3">
         <v>2047400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1990700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1758500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1621900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1591100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1574600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1407200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1366500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1296200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1278500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1226500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1212300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1229800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1242100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1149000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1088600</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>733400</v>
+      </c>
+      <c r="E49" s="3">
         <v>738700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>741300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>735400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>515200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>505400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>494900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>480300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>466100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>464200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>465100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>460800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>466600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>472600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>610100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>607000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>490400</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>289300</v>
+      </c>
+      <c r="E52" s="3">
         <v>290900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>261200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>245700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>238400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>219600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>215700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>206800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>225600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>212600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>229600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>245500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>248200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>230600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>210400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>218200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>205200</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>6656500</v>
+      </c>
+      <c r="E54" s="3">
         <v>6711700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6464600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6151000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5379300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5210700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5030900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4572600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4253200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4429600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4885900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4723800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4240000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4236800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3767100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3804700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3505300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1379500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1603400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1548200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1858400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1571400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1447200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1622900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1419900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1224000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1273200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1296500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1183600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>747800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>957000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1085800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1178200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1028400</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>136900</v>
+      </c>
+      <c r="E58" s="3">
         <v>136500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>133100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>450100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>316000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>459900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>132500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>119000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>60400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>54600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>58800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>90800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>59200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>52000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>49500</v>
-      </c>
-      <c r="R58" s="3">
-        <v>48500</v>
       </c>
       <c r="S58" s="3">
         <v>48500</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>48500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>987700</v>
+      </c>
+      <c r="E59" s="3">
         <v>912700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>802000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>803900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>795800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1029100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>864000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>617500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>683100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>687900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>837200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>591600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>703700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1455700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>748800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>712100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>656200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>2504100</v>
+      </c>
+      <c r="E60" s="3">
         <v>2652600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2483300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3112400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2683200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2936200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2619400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2156400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1967500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2015700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2192500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1866000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1510700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2464700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1884100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1938800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1733100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>2813500</v>
+      </c>
+      <c r="E61" s="3">
         <v>2923800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2883000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2405600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2264800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2060800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2054900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2176600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2203100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2162900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2590700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2695500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2744300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1942400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1836800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1807900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1809000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>557400</v>
+      </c>
+      <c r="E62" s="3">
         <v>557700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>558200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>463200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>422100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>425700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>489400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>466400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>500600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>501500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>577600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>609000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>651000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>623300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>635900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>616400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>5880200</v>
+      </c>
+      <c r="E66" s="3">
         <v>6138800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5929700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5984900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5373800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5425600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5166500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4802200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4673900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4683900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5364600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5174400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4910100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5034500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4360900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4367500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4124600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>443600</v>
+      </c>
+      <c r="E72" s="3">
         <v>263200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>175500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-129300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-299300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-293600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-404300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-555700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-692000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-551900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-575900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-724400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-932300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1033900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-757000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-798800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-851900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>776300</v>
+      </c>
+      <c r="E76" s="3">
         <v>572900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>534900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>166100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-214900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-135600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-229600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-420700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-254300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-478700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-450600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-670100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-797700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-593800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-562800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-619300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43951</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43769</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43677</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>337700</v>
+      </c>
+      <c r="E81" s="3">
         <v>154200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>365300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>141200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>236500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>120900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>209400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>127600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>212600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>244200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>264300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>198800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>126300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-226000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>118400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>135600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>95700</v>
+      </c>
+      <c r="E83" s="3">
         <v>92400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>90000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>76300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>72800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>71300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>74500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>67400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>65900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>65800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>68000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>64600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>64300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>63900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>63200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>59400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>56700</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>489400</v>
+      </c>
+      <c r="E89" s="3">
         <v>258800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>307200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>343300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>332100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-333100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>708800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-265700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>162000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>164900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>318600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>309000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>113900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>212700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>138800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>170500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>141700</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-102600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-117800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-262900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-175500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-112000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-109000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-333000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-135800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-131700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-85500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-107000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-78100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-33300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-34900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-116200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-69300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-56200</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-99900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-115600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-253900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-377000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-115000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-107500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-328900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-130800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-131000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-97000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-119800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-61700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-35200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-43600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-126200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-197400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-67500</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4849,16 +5082,17 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-14200</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-12600</v>
       </c>
       <c r="F96" s="3">
         <v>-12600</v>
@@ -4867,26 +5101,26 @@
         <v>-12600</v>
       </c>
       <c r="H96" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="I96" s="3">
         <v>-13000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-10700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-10500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-10900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-11000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-9600</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -4894,16 +5128,19 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
-        <v>-8900</v>
+        <v>0</v>
       </c>
       <c r="R96" s="3">
         <v>-8900</v>
       </c>
       <c r="S96" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="T96" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-240400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-115300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>109700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>72800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-224700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>232500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-138500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>73500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-369800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-707900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-187700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-23200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>197800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>596900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-97300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-121300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>95800</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-17200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-20600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-38300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>11400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-9900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>8900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>175500</v>
+      </c>
+      <c r="E102" s="3">
         <v>10700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>142400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-210500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>231500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-321100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-335500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-634800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>16400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>223200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>285400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>758200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-81400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-146500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>174800</v>
       </c>
     </row>
